--- a/src/tests/option-loss.test-cases.xlsx
+++ b/src/tests/option-loss.test-cases.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51960D50-4953-BA4D-B3D8-4D2E340E4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AAFE6E-5C9B-0E45-A990-2C639AFC368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="1" r:id="rId1"/>
     <sheet name="loss01" sheetId="21" r:id="rId2"/>
+    <sheet name="loss02" sheetId="22" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="157">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -753,6 +754,110 @@
       <t>ワリアイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>loss02</t>
+  </si>
+  <si>
+    <t>loss02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>very-little</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seldom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>everyday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-more-per-day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3k-less</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5k-less</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問票で算出した「食品ロスを考慮した食材購入量の平均に対する比率」</t>
+    <rPh sb="0" eb="3">
+      <t>シツモンヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>倍</t>
+    <rPh sb="0" eb="1">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>食品ロスが無い場合の食材購入量の平均に対する比率</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>↑上記の比率の増減に応じて食材購入量を増減</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ショクザイコウニュウリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1237,15 +1342,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1271,6 +1367,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1287,729 +1392,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7876515" cy="3402598"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD164EB-5EDA-EEC2-247A-59C8CF9B2EA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7912100" y="457200"/>
-          <a:ext cx="7876515" cy="3402598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>日の活動量（摂取カロリー量）はどのくらいですか？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>foodIntakeFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># very-little|somewhat-little|moderate|somewhat-much|very-much</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>食材を捨てたり食べ残し（食品ロス）が生じる頻度はどのくらいですか？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>foodDirectWasteFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># seldom|1-per-week|2-3-per-week|4-7-per-week|8-more-per-week|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>foodLeftoverFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># seldom|1-per-week|2-3-per-week|4-7-per-week|8-more-per-week|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>普段の食生活を教えてください</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dishBeefFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># everyday|4-5-per-week|2-3-per-week|1-per-week|2-3-per-month|1-less-per-month|never|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dishPorkFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># everyday|4-5-per-week|2-3-per-week|1-per-week|2-3-per-month|1-less-per-month|never|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dishChickenFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># everyday|4-5-per-week|2-3-per-week|1-per-week|2-3-per-month|1-less-per-month|never|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dishSeafoodFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># everyday|4-5-per-week|2-3-per-week|1-per-week|2-3-per-month|1-less-per-month|never|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dairyFoodFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># 3-more-per-day|2-per-day|1-per-day|half-of-week|1-2-less-per-week|never|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>１</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>週間にどのくらいの頻度でお酒を飲みますか？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>alcoholFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># everyday|4-5-per-week|2-3-per-week|1-per-week|2-3-per-month|1-less-per-month|never|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>お酒以外の飲み物、お菓子類の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ヶ月の支出はどのくらいですか？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>softDrinkSnackFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>#3k-less|3k-5k|5k-10k|10k-15k|15k-more|unknown</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ヶ月の外食費はどのくらいですか？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>eatOutFactorKey: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t># 5k-less|5k-10k|10k-20k|20k-50k|50k-more|unknown</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2312,10 +1694,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2530,10 +1912,196 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2544,7 +2112,7 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2600,11 +2168,11 @@
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:14" customFormat="1">
       <c r="A2" s="4" t="s">
@@ -2616,7 +2184,7 @@
       <c r="C2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="43">
         <v>55.623604055171754</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -2654,7 +2222,7 @@
       <c r="C3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="44">
         <v>38.933923506043094</v>
       </c>
       <c r="E3" s="31" t="s">
@@ -2681,10 +2249,10 @@
       <c r="L3" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="46">
         <v>1.2784920567106279</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2698,7 +2266,7 @@
       <c r="C4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="44">
         <v>26.151199438518677</v>
       </c>
       <c r="E4" s="31" t="s">
@@ -2722,11 +2290,11 @@
       <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" customFormat="1">
       <c r="A5" s="4" t="s">
@@ -2738,7 +2306,7 @@
       <c r="C5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="44">
         <v>16.294741655765144</v>
       </c>
       <c r="E5" s="31" t="s">
@@ -2765,10 +2333,10 @@
       <c r="L5" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="46">
         <v>0.96432015429122475</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2782,7 +2350,7 @@
       <c r="C6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="44">
         <v>129.19334121576313</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2806,11 +2374,11 @@
       <c r="K6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="54" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="53"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" customFormat="1">
       <c r="A7" s="4" t="s">
@@ -2822,7 +2390,7 @@
       <c r="C7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="44">
         <v>14.323260370475527</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -2846,9 +2414,9 @@
       <c r="K7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="53"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" customFormat="1">
       <c r="A8" s="4" t="s">
@@ -2860,7 +2428,7 @@
       <c r="C8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="44">
         <v>32.226934873838722</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -2884,9 +2452,9 @@
       <c r="K8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="53"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" customFormat="1">
       <c r="A9" s="4" t="s">
@@ -2898,7 +2466,7 @@
       <c r="C9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="44">
         <v>3.4889417445959201</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -2922,9 +2490,9 @@
       <c r="K9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="53"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" customFormat="1">
       <c r="A10" s="4" t="s">
@@ -2936,7 +2504,7 @@
       <c r="C10" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="44">
         <v>1.7095999335254433</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -2960,9 +2528,9 @@
       <c r="K10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="53"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" customFormat="1">
       <c r="A11" s="4" t="s">
@@ -2974,7 +2542,7 @@
       <c r="C11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="44">
         <v>1.2724513682917662</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -2998,9 +2566,9 @@
       <c r="K11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="53"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" customFormat="1">
       <c r="A12" s="4" t="s">
@@ -3012,7 +2580,7 @@
       <c r="C12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="44">
         <v>0.65837425074371037</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -3036,9 +2604,9 @@
       <c r="K12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="53"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" customFormat="1">
       <c r="A13" s="4" t="s">
@@ -3050,7 +2618,7 @@
       <c r="C13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="44">
         <v>1.4563705129716622</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -3088,7 +2656,7 @@
       <c r="C14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="44">
         <v>1.2098142740589075</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3126,7 +2694,7 @@
       <c r="C15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="44">
         <v>0.24984094172505442</v>
       </c>
       <c r="E15" s="31" t="s">
@@ -3164,7 +2732,7 @@
       <c r="C16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="44">
         <v>1.0148420300287837</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -3202,7 +2770,7 @@
       <c r="C17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="44">
         <v>4.1526857738296217</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -3240,7 +2808,7 @@
       <c r="C18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="44">
         <v>1.5503971501989446</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -3278,7 +2846,7 @@
       <c r="C19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="44">
         <v>54.237841341435427</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -3316,7 +2884,7 @@
       <c r="C20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="44">
         <v>6.4852784709700577</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -3354,7 +2922,7 @@
       <c r="C21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="44">
         <v>36.816364676878656</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -3392,7 +2960,7 @@
       <c r="C22" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="44">
         <v>56.978077868123975</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -3430,7 +2998,7 @@
       <c r="C23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="44">
         <v>61.428731834947492</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -3468,7 +3036,7 @@
       <c r="C24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="44">
         <v>3.343582152694291</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -3506,7 +3074,7 @@
       <c r="C25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="44">
         <v>375.41765842757957</v>
       </c>
       <c r="E25" s="31" t="s">
@@ -3544,7 +3112,7 @@
       <c r="C26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="45">
         <v>357.5526913223145</v>
       </c>
       <c r="E26" s="35" t="s">
@@ -3582,7 +3150,7 @@
       <c r="C27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="43">
         <v>685.98822095306832</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -3591,10 +3159,10 @@
       <c r="F27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="55" t="s">
+      <c r="G27" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="52" t="s">
         <v>44</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -3606,13 +3174,13 @@
       <c r="K27" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="56" t="s">
+      <c r="L27" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="54">
         <v>-2.2902399999999948E-2</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14" s="28" customFormat="1" ht="21" thickBot="1">
       <c r="A28" s="26" t="s">
@@ -3624,7 +3192,7 @@
       <c r="C28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <v>180.78546237221693</v>
       </c>
       <c r="E28" s="35" t="s">
@@ -3633,10 +3201,10 @@
       <c r="F28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="64" t="s">
+      <c r="G28" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="61" t="s">
         <v>44</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -3648,13 +3216,13 @@
       <c r="K28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="57">
         <v>-8.6631906157386862E-2</v>
       </c>
-      <c r="N28" s="61"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="21"/>
@@ -3794,4 +3362,1263 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E6104-61DA-C346-B772-398AC8E34810}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+    </row>
+    <row r="2" spans="1:14" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="43">
+        <v>25.95768189241349</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="37"/>
+    </row>
+    <row r="3" spans="1:14" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="44">
+        <v>18.169164302820114</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="46">
+        <v>0.97300480743768281</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="44">
+        <v>12.203893071308716</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="44">
+        <v>7.604212772690401</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0.96432015429122475</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="44">
+        <v>60.290225900689471</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:14" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="44">
+        <v>6.6841881728885806</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="50"/>
+    </row>
+    <row r="8" spans="1:14" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="44">
+        <v>15.039236274458071</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="48"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="50"/>
+    </row>
+    <row r="9" spans="1:14" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="44">
+        <v>48.845184424342875</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="50"/>
+    </row>
+    <row r="10" spans="1:14" customFormat="1">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="44">
+        <v>23.934399069356203</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="44">
+        <v>17.814319156084725</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="1:14" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="44">
+        <v>7.3737916083295563</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="50"/>
+    </row>
+    <row r="13" spans="1:14" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="44">
+        <v>16.311349745282616</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="44">
+        <v>13.549919869459766</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="44">
+        <v>2.79821854732061</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" customFormat="1">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="44">
+        <v>11.366230736322377</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="44">
+        <v>46.510080666891767</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="44">
+        <v>17.364448082228179</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="44">
+        <v>25.310992626003202</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" customFormat="1">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="44">
+        <v>3.0264632864526937</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="44">
+        <v>17.180970182543376</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14" customFormat="1">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="44">
+        <v>6.5117803277855977</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="44">
+        <v>28.666741522975496</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="44">
+        <v>93.620300275440158</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="44">
+        <v>42.904875248866233</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1" ht="21" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="45">
+        <v>40.863164722550231</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="43">
+        <v>22.866274031768942</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="54">
+        <v>-2.2902399999999948E-2</v>
+      </c>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:14" s="28" customFormat="1" ht="21" thickBot="1">
+      <c r="A28" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="45">
+        <v>6.0261820790738971</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="57">
+        <v>-8.6631906157386862E-2</v>
+      </c>
+      <c r="N28" s="58"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D153F4A8-0902-1F44-AAEC-83B2E1F4B514}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E5F7A366-4B33-F544-80D3-7CB7444DEAAC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D153F4A8-0902-1F44-AAEC-83B2E1F4B514}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E5F7A366-4B33-F544-80D3-7CB7444DEAAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D27:D28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>